--- a/TestingRosetta.xlsx
+++ b/TestingRosetta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeiBA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeiBA\Desktop\TestingRosetta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9736307-09FF-4132-BD73-A18036467CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED60F1-7F34-4FB5-AF9C-249F1F034A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AE854E45-2164-4A2D-A9CD-CD5FB7E9D4A2}"/>
   </bookViews>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5FD333-0D5A-4362-B699-A8112E89BE99}">
   <dimension ref="A1:R662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
